--- a/team work/榨利计算表 .xlsx
+++ b/team work/榨利计算表 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>汇率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>压榨套利计算表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注:默认出油率19%,出粕率79%,输入数据将自动计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -246,6 +250,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -553,10 +561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,29 +574,42 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -596,14 +617,28 @@
         <f>IF(B3="","",(B3+B4)*0.367433)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -611,26 +646,56 @@
         <f>IF(B5="","",B5*B6*1.03*1.13+100)</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
